--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1">
         <f>B4/B10</f>
-        <v>3600</v>
+        <v>360000</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -763,157 +763,157 @@
       </c>
       <c r="B7">
         <f>B6/$B$10</f>
-        <v>3600</v>
+        <v>360000</v>
       </c>
       <c r="C7">
         <f>C6/$B$10</f>
-        <v>1800</v>
+        <v>180000</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:I7" si="26">D6/$B$10</f>
-        <v>1200</v>
+        <v>120000</v>
       </c>
       <c r="E7">
         <f t="shared" si="26"/>
-        <v>900</v>
+        <v>90000</v>
       </c>
       <c r="F7">
         <f t="shared" si="26"/>
-        <v>720</v>
+        <v>72000</v>
       </c>
       <c r="G7">
         <f t="shared" si="26"/>
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="H7">
         <f t="shared" si="26"/>
-        <v>514.28571428571422</v>
+        <v>51428.571428571428</v>
       </c>
       <c r="I7">
         <f t="shared" si="26"/>
-        <v>450</v>
+        <v>45000</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7" si="27">J6/$B$10</f>
-        <v>400</v>
+        <v>40000</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" si="28">K6/$B$10</f>
-        <v>360</v>
+        <v>36000</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7" si="29">L6/$B$10</f>
-        <v>327.27272727272731</v>
+        <v>32727.272727272728</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7" si="30">M6/$B$10</f>
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7" si="31">N6/$B$10</f>
-        <v>276.92307692307691</v>
+        <v>27692.307692307691</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7" si="32">O6/$B$10</f>
-        <v>257.14285714285711</v>
+        <v>25714.285714285714</v>
       </c>
       <c r="P7">
         <f t="shared" ref="P7" si="33">P6/$B$10</f>
-        <v>240</v>
+        <v>24000</v>
       </c>
       <c r="Q7">
         <f t="shared" ref="Q7" si="34">Q6/$B$10</f>
-        <v>225</v>
+        <v>22500</v>
       </c>
       <c r="R7">
         <f t="shared" ref="R7" si="35">R6/$B$10</f>
-        <v>211.76470588235296</v>
+        <v>21176.470588235297</v>
       </c>
       <c r="S7">
         <f t="shared" ref="S7" si="36">S6/$B$10</f>
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="T7">
         <f t="shared" ref="T7" si="37">T6/$B$10</f>
-        <v>189.4736842105263</v>
+        <v>18947.36842105263</v>
       </c>
       <c r="U7">
         <f t="shared" ref="U7" si="38">U6/$B$10</f>
-        <v>180</v>
+        <v>18000</v>
       </c>
       <c r="V7">
         <f t="shared" ref="V7" si="39">V6/$B$10</f>
-        <v>171.42857142857144</v>
+        <v>17142.857142857145</v>
       </c>
       <c r="W7">
         <f t="shared" ref="W7" si="40">W6/$B$10</f>
-        <v>163.63636363636365</v>
+        <v>16363.636363636364</v>
       </c>
       <c r="X7">
         <f t="shared" ref="X7" si="41">X6/$B$10</f>
-        <v>156.52173913043478</v>
+        <v>15652.17391304348</v>
       </c>
       <c r="Y7">
         <f t="shared" ref="Y7" si="42">Y6/$B$10</f>
-        <v>150</v>
+        <v>15000</v>
       </c>
       <c r="Z7">
         <f t="shared" ref="Z7" si="43">Z6/$B$10</f>
-        <v>144</v>
+        <v>14400</v>
       </c>
       <c r="AA7">
         <f t="shared" ref="AA7" si="44">AA6/$B$10</f>
-        <v>138.46153846153845</v>
+        <v>13846.153846153846</v>
       </c>
       <c r="AB7">
         <f t="shared" ref="AB7" si="45">AB6/$B$10</f>
-        <v>133.33333333333331</v>
+        <v>13333.333333333332</v>
       </c>
       <c r="AC7">
         <f t="shared" ref="AC7" si="46">AC6/$B$10</f>
-        <v>128.57142857142856</v>
+        <v>12857.142857142857</v>
       </c>
       <c r="AD7">
         <f t="shared" ref="AD7" si="47">AD6/$B$10</f>
-        <v>124.13793103448276</v>
+        <v>12413.793103448275</v>
       </c>
       <c r="AE7">
         <f t="shared" ref="AE7" si="48">AE6/$B$10</f>
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="AF7">
         <f t="shared" ref="AF7" si="49">AF6/$B$10</f>
-        <v>116.12903225806451</v>
+        <v>11612.903225806451</v>
       </c>
       <c r="AG7">
         <f t="shared" ref="AG7" si="50">AG6/$B$10</f>
-        <v>112.5</v>
+        <v>11250</v>
       </c>
       <c r="AH7">
         <f t="shared" ref="AH7:AI7" si="51">AH6/$B$10</f>
-        <v>109.09090909090908</v>
+        <v>10909.090909090908</v>
       </c>
       <c r="AI7">
         <f t="shared" si="51"/>
-        <v>105.88235294117648</v>
+        <v>10588.235294117649</v>
       </c>
       <c r="AJ7">
         <f t="shared" ref="AJ7" si="52">AJ6/$B$10</f>
-        <v>102.85714285714285</v>
+        <v>10285.714285714284</v>
       </c>
       <c r="AK7">
         <f t="shared" ref="AK7" si="53">AK6/$B$10</f>
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="AL7">
         <f t="shared" ref="AL7" si="54">AL6/$B$10</f>
-        <v>97.297297297297305</v>
+        <v>9729.72972972973</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK8">
         <f>AK7/5</f>
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>20000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>168000000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -940,22 +940,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>B16/B17</f>
         <v>21000000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
-        <f>B18/$B$10</f>
+        <f>B18/C19</f>
         <v>1050</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:KP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,16 +366,16 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:302" x14ac:dyDescent="0.25">
       <c r="B1">
         <f>B4/B10</f>
-        <v>360000</v>
+        <v>3600</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -490,8 +490,800 @@
       <c r="AL4">
         <v>72000000</v>
       </c>
+      <c r="AM4">
+        <v>72000000</v>
+      </c>
+      <c r="AN4">
+        <v>72000000</v>
+      </c>
+      <c r="AO4">
+        <v>72000000</v>
+      </c>
+      <c r="AP4">
+        <v>72000000</v>
+      </c>
+      <c r="AQ4">
+        <v>72000000</v>
+      </c>
+      <c r="AR4">
+        <v>72000000</v>
+      </c>
+      <c r="AS4">
+        <v>72000000</v>
+      </c>
+      <c r="AT4">
+        <v>72000000</v>
+      </c>
+      <c r="AU4">
+        <v>72000000</v>
+      </c>
+      <c r="AV4">
+        <v>72000000</v>
+      </c>
+      <c r="AW4">
+        <v>72000000</v>
+      </c>
+      <c r="AX4">
+        <v>72000000</v>
+      </c>
+      <c r="AY4">
+        <v>72000000</v>
+      </c>
+      <c r="AZ4">
+        <v>72000000</v>
+      </c>
+      <c r="BA4">
+        <v>72000000</v>
+      </c>
+      <c r="BB4">
+        <v>72000000</v>
+      </c>
+      <c r="BC4">
+        <v>72000000</v>
+      </c>
+      <c r="BD4">
+        <v>72000000</v>
+      </c>
+      <c r="BE4">
+        <v>72000000</v>
+      </c>
+      <c r="BF4">
+        <v>72000000</v>
+      </c>
+      <c r="BG4">
+        <v>72000000</v>
+      </c>
+      <c r="BH4">
+        <v>72000000</v>
+      </c>
+      <c r="BI4">
+        <v>72000000</v>
+      </c>
+      <c r="BJ4">
+        <v>72000000</v>
+      </c>
+      <c r="BK4">
+        <v>72000000</v>
+      </c>
+      <c r="BL4">
+        <v>72000000</v>
+      </c>
+      <c r="BM4">
+        <v>72000000</v>
+      </c>
+      <c r="BN4">
+        <v>72000000</v>
+      </c>
+      <c r="BO4">
+        <v>72000000</v>
+      </c>
+      <c r="BP4">
+        <v>72000000</v>
+      </c>
+      <c r="BQ4">
+        <v>72000000</v>
+      </c>
+      <c r="BR4">
+        <v>72000000</v>
+      </c>
+      <c r="BS4">
+        <v>72000000</v>
+      </c>
+      <c r="BT4">
+        <v>72000000</v>
+      </c>
+      <c r="BU4">
+        <v>72000000</v>
+      </c>
+      <c r="BV4">
+        <v>72000000</v>
+      </c>
+      <c r="BW4">
+        <v>72000000</v>
+      </c>
+      <c r="BX4">
+        <v>72000000</v>
+      </c>
+      <c r="BY4">
+        <v>72000000</v>
+      </c>
+      <c r="BZ4">
+        <v>72000000</v>
+      </c>
+      <c r="CA4">
+        <v>72000000</v>
+      </c>
+      <c r="CB4">
+        <v>72000000</v>
+      </c>
+      <c r="CC4">
+        <v>72000000</v>
+      </c>
+      <c r="CD4">
+        <v>72000000</v>
+      </c>
+      <c r="CE4">
+        <v>72000000</v>
+      </c>
+      <c r="CF4">
+        <v>72000000</v>
+      </c>
+      <c r="CG4">
+        <v>72000000</v>
+      </c>
+      <c r="CH4">
+        <v>72000000</v>
+      </c>
+      <c r="CI4">
+        <v>72000000</v>
+      </c>
+      <c r="CJ4">
+        <v>72000000</v>
+      </c>
+      <c r="CK4">
+        <v>72000000</v>
+      </c>
+      <c r="CL4">
+        <v>72000000</v>
+      </c>
+      <c r="CM4">
+        <v>72000000</v>
+      </c>
+      <c r="CN4">
+        <v>72000000</v>
+      </c>
+      <c r="CO4">
+        <v>72000000</v>
+      </c>
+      <c r="CP4">
+        <v>72000000</v>
+      </c>
+      <c r="CQ4">
+        <v>72000000</v>
+      </c>
+      <c r="CR4">
+        <v>72000000</v>
+      </c>
+      <c r="CS4">
+        <v>72000000</v>
+      </c>
+      <c r="CT4">
+        <v>72000000</v>
+      </c>
+      <c r="CU4">
+        <v>72000000</v>
+      </c>
+      <c r="CV4">
+        <v>72000000</v>
+      </c>
+      <c r="CW4">
+        <v>72000000</v>
+      </c>
+      <c r="CX4">
+        <v>72000000</v>
+      </c>
+      <c r="CY4">
+        <v>72000000</v>
+      </c>
+      <c r="CZ4">
+        <v>72000000</v>
+      </c>
+      <c r="DA4">
+        <v>72000000</v>
+      </c>
+      <c r="DB4">
+        <v>72000000</v>
+      </c>
+      <c r="DC4">
+        <v>72000000</v>
+      </c>
+      <c r="DD4">
+        <v>72000000</v>
+      </c>
+      <c r="DE4">
+        <v>72000000</v>
+      </c>
+      <c r="DF4">
+        <v>72000000</v>
+      </c>
+      <c r="DG4">
+        <v>72000000</v>
+      </c>
+      <c r="DH4">
+        <v>72000000</v>
+      </c>
+      <c r="DI4">
+        <v>72000000</v>
+      </c>
+      <c r="DJ4">
+        <v>72000000</v>
+      </c>
+      <c r="DK4">
+        <v>72000000</v>
+      </c>
+      <c r="DL4">
+        <v>72000000</v>
+      </c>
+      <c r="DM4">
+        <v>72000000</v>
+      </c>
+      <c r="DN4">
+        <v>72000000</v>
+      </c>
+      <c r="DO4">
+        <v>72000000</v>
+      </c>
+      <c r="DP4">
+        <v>72000000</v>
+      </c>
+      <c r="DQ4">
+        <v>72000000</v>
+      </c>
+      <c r="DR4">
+        <v>72000000</v>
+      </c>
+      <c r="DS4">
+        <v>72000000</v>
+      </c>
+      <c r="DT4">
+        <v>72000000</v>
+      </c>
+      <c r="DU4">
+        <v>72000000</v>
+      </c>
+      <c r="DV4">
+        <v>72000000</v>
+      </c>
+      <c r="DW4">
+        <v>72000000</v>
+      </c>
+      <c r="DX4">
+        <v>72000000</v>
+      </c>
+      <c r="DY4">
+        <v>72000000</v>
+      </c>
+      <c r="DZ4">
+        <v>72000000</v>
+      </c>
+      <c r="EA4">
+        <v>72000000</v>
+      </c>
+      <c r="EB4">
+        <v>72000000</v>
+      </c>
+      <c r="EC4">
+        <v>72000000</v>
+      </c>
+      <c r="ED4">
+        <v>72000000</v>
+      </c>
+      <c r="EE4">
+        <v>72000000</v>
+      </c>
+      <c r="EF4">
+        <v>72000000</v>
+      </c>
+      <c r="EG4">
+        <v>72000000</v>
+      </c>
+      <c r="EH4">
+        <v>72000000</v>
+      </c>
+      <c r="EI4">
+        <v>72000000</v>
+      </c>
+      <c r="EJ4">
+        <v>72000000</v>
+      </c>
+      <c r="EK4">
+        <v>72000000</v>
+      </c>
+      <c r="EL4">
+        <v>72000000</v>
+      </c>
+      <c r="EM4">
+        <v>72000000</v>
+      </c>
+      <c r="EN4">
+        <v>72000000</v>
+      </c>
+      <c r="EO4">
+        <v>72000000</v>
+      </c>
+      <c r="EP4">
+        <v>72000000</v>
+      </c>
+      <c r="EQ4">
+        <v>72000000</v>
+      </c>
+      <c r="ER4">
+        <v>72000000</v>
+      </c>
+      <c r="ES4">
+        <v>72000000</v>
+      </c>
+      <c r="ET4">
+        <v>72000000</v>
+      </c>
+      <c r="EU4">
+        <v>72000000</v>
+      </c>
+      <c r="EV4">
+        <v>72000000</v>
+      </c>
+      <c r="EW4">
+        <v>72000000</v>
+      </c>
+      <c r="EX4">
+        <v>72000000</v>
+      </c>
+      <c r="EY4">
+        <v>72000000</v>
+      </c>
+      <c r="EZ4">
+        <v>72000000</v>
+      </c>
+      <c r="FA4">
+        <v>72000000</v>
+      </c>
+      <c r="FB4">
+        <v>72000000</v>
+      </c>
+      <c r="FC4">
+        <v>72000000</v>
+      </c>
+      <c r="FD4">
+        <v>72000000</v>
+      </c>
+      <c r="FE4">
+        <v>72000000</v>
+      </c>
+      <c r="FF4">
+        <v>72000000</v>
+      </c>
+      <c r="FG4">
+        <v>72000000</v>
+      </c>
+      <c r="FH4">
+        <v>72000000</v>
+      </c>
+      <c r="FI4">
+        <v>72000000</v>
+      </c>
+      <c r="FJ4">
+        <v>72000000</v>
+      </c>
+      <c r="FK4">
+        <v>72000000</v>
+      </c>
+      <c r="FL4">
+        <v>72000000</v>
+      </c>
+      <c r="FM4">
+        <v>72000000</v>
+      </c>
+      <c r="FN4">
+        <v>72000000</v>
+      </c>
+      <c r="FO4">
+        <v>72000000</v>
+      </c>
+      <c r="FP4">
+        <v>72000000</v>
+      </c>
+      <c r="FQ4">
+        <v>72000000</v>
+      </c>
+      <c r="FR4">
+        <v>72000000</v>
+      </c>
+      <c r="FS4">
+        <v>72000000</v>
+      </c>
+      <c r="FT4">
+        <v>72000000</v>
+      </c>
+      <c r="FU4">
+        <v>72000000</v>
+      </c>
+      <c r="FV4">
+        <v>72000000</v>
+      </c>
+      <c r="FW4">
+        <v>72000000</v>
+      </c>
+      <c r="FX4">
+        <v>72000000</v>
+      </c>
+      <c r="FY4">
+        <v>72000000</v>
+      </c>
+      <c r="FZ4">
+        <v>72000000</v>
+      </c>
+      <c r="GA4">
+        <v>72000000</v>
+      </c>
+      <c r="GB4">
+        <v>72000000</v>
+      </c>
+      <c r="GC4">
+        <v>72000000</v>
+      </c>
+      <c r="GD4">
+        <v>72000000</v>
+      </c>
+      <c r="GE4">
+        <v>72000000</v>
+      </c>
+      <c r="GF4">
+        <v>72000000</v>
+      </c>
+      <c r="GG4">
+        <v>72000000</v>
+      </c>
+      <c r="GH4">
+        <v>72000000</v>
+      </c>
+      <c r="GI4">
+        <v>72000000</v>
+      </c>
+      <c r="GJ4">
+        <v>72000000</v>
+      </c>
+      <c r="GK4">
+        <v>72000000</v>
+      </c>
+      <c r="GL4">
+        <v>72000000</v>
+      </c>
+      <c r="GM4">
+        <v>72000000</v>
+      </c>
+      <c r="GN4">
+        <v>72000000</v>
+      </c>
+      <c r="GO4">
+        <v>72000000</v>
+      </c>
+      <c r="GP4">
+        <v>72000000</v>
+      </c>
+      <c r="GQ4">
+        <v>72000000</v>
+      </c>
+      <c r="GR4">
+        <v>72000000</v>
+      </c>
+      <c r="GS4">
+        <v>72000000</v>
+      </c>
+      <c r="GT4">
+        <v>72000000</v>
+      </c>
+      <c r="GU4">
+        <v>72000000</v>
+      </c>
+      <c r="GV4">
+        <v>72000000</v>
+      </c>
+      <c r="GW4">
+        <v>72000000</v>
+      </c>
+      <c r="GX4">
+        <v>72000000</v>
+      </c>
+      <c r="GY4">
+        <v>72000000</v>
+      </c>
+      <c r="GZ4">
+        <v>72000000</v>
+      </c>
+      <c r="HA4">
+        <v>72000000</v>
+      </c>
+      <c r="HB4">
+        <v>72000000</v>
+      </c>
+      <c r="HC4">
+        <v>72000000</v>
+      </c>
+      <c r="HD4">
+        <v>72000000</v>
+      </c>
+      <c r="HE4">
+        <v>72000000</v>
+      </c>
+      <c r="HF4">
+        <v>72000000</v>
+      </c>
+      <c r="HG4">
+        <v>72000000</v>
+      </c>
+      <c r="HH4">
+        <v>72000000</v>
+      </c>
+      <c r="HI4">
+        <v>72000000</v>
+      </c>
+      <c r="HJ4">
+        <v>72000000</v>
+      </c>
+      <c r="HK4">
+        <v>72000000</v>
+      </c>
+      <c r="HL4">
+        <v>72000000</v>
+      </c>
+      <c r="HM4">
+        <v>72000000</v>
+      </c>
+      <c r="HN4">
+        <v>72000000</v>
+      </c>
+      <c r="HO4">
+        <v>72000000</v>
+      </c>
+      <c r="HP4">
+        <v>72000000</v>
+      </c>
+      <c r="HQ4">
+        <v>72000000</v>
+      </c>
+      <c r="HR4">
+        <v>72000000</v>
+      </c>
+      <c r="HS4">
+        <v>72000000</v>
+      </c>
+      <c r="HT4">
+        <v>72000000</v>
+      </c>
+      <c r="HU4">
+        <v>72000000</v>
+      </c>
+      <c r="HV4">
+        <v>72000000</v>
+      </c>
+      <c r="HW4">
+        <v>72000000</v>
+      </c>
+      <c r="HX4">
+        <v>72000000</v>
+      </c>
+      <c r="HY4">
+        <v>72000000</v>
+      </c>
+      <c r="HZ4">
+        <v>72000000</v>
+      </c>
+      <c r="IA4">
+        <v>72000000</v>
+      </c>
+      <c r="IB4">
+        <v>72000000</v>
+      </c>
+      <c r="IC4">
+        <v>72000000</v>
+      </c>
+      <c r="ID4">
+        <v>72000000</v>
+      </c>
+      <c r="IE4">
+        <v>72000000</v>
+      </c>
+      <c r="IF4">
+        <v>72000000</v>
+      </c>
+      <c r="IG4">
+        <v>72000000</v>
+      </c>
+      <c r="IH4">
+        <v>72000000</v>
+      </c>
+      <c r="II4">
+        <v>72000000</v>
+      </c>
+      <c r="IJ4">
+        <v>72000000</v>
+      </c>
+      <c r="IK4">
+        <v>72000000</v>
+      </c>
+      <c r="IL4">
+        <v>72000000</v>
+      </c>
+      <c r="IM4">
+        <v>72000000</v>
+      </c>
+      <c r="IN4">
+        <v>72000000</v>
+      </c>
+      <c r="IO4">
+        <v>72000000</v>
+      </c>
+      <c r="IP4">
+        <v>72000000</v>
+      </c>
+      <c r="IQ4">
+        <v>72000000</v>
+      </c>
+      <c r="IR4">
+        <v>72000000</v>
+      </c>
+      <c r="IS4">
+        <v>72000000</v>
+      </c>
+      <c r="IT4">
+        <v>72000000</v>
+      </c>
+      <c r="IU4">
+        <v>72000000</v>
+      </c>
+      <c r="IV4">
+        <v>72000000</v>
+      </c>
+      <c r="IW4">
+        <v>72000000</v>
+      </c>
+      <c r="IX4">
+        <v>72000000</v>
+      </c>
+      <c r="IY4">
+        <v>72000000</v>
+      </c>
+      <c r="IZ4">
+        <v>72000000</v>
+      </c>
+      <c r="JA4">
+        <v>72000000</v>
+      </c>
+      <c r="JB4">
+        <v>72000000</v>
+      </c>
+      <c r="JC4">
+        <v>72000000</v>
+      </c>
+      <c r="JD4">
+        <v>72000000</v>
+      </c>
+      <c r="JE4">
+        <v>72000000</v>
+      </c>
+      <c r="JF4">
+        <v>72000000</v>
+      </c>
+      <c r="JG4">
+        <v>72000000</v>
+      </c>
+      <c r="JH4">
+        <v>72000000</v>
+      </c>
+      <c r="JI4">
+        <v>72000000</v>
+      </c>
+      <c r="JJ4">
+        <v>72000000</v>
+      </c>
+      <c r="JK4">
+        <v>72000000</v>
+      </c>
+      <c r="JL4">
+        <v>72000000</v>
+      </c>
+      <c r="JM4">
+        <v>72000000</v>
+      </c>
+      <c r="JN4">
+        <v>72000000</v>
+      </c>
+      <c r="JO4">
+        <v>72000000</v>
+      </c>
+      <c r="JP4">
+        <v>72000000</v>
+      </c>
+      <c r="JQ4">
+        <v>72000000</v>
+      </c>
+      <c r="JR4">
+        <v>72000000</v>
+      </c>
+      <c r="JS4">
+        <v>72000000</v>
+      </c>
+      <c r="JT4">
+        <v>72000000</v>
+      </c>
+      <c r="JU4">
+        <v>72000000</v>
+      </c>
+      <c r="JV4">
+        <v>72000000</v>
+      </c>
+      <c r="JW4">
+        <v>72000000</v>
+      </c>
+      <c r="JX4">
+        <v>72000000</v>
+      </c>
+      <c r="JY4">
+        <v>72000000</v>
+      </c>
+      <c r="JZ4">
+        <v>72000000</v>
+      </c>
+      <c r="KA4">
+        <v>72000000</v>
+      </c>
+      <c r="KB4">
+        <v>72000000</v>
+      </c>
+      <c r="KC4">
+        <v>72000000</v>
+      </c>
+      <c r="KD4">
+        <v>72000000</v>
+      </c>
+      <c r="KE4">
+        <v>72000000</v>
+      </c>
+      <c r="KF4">
+        <v>72000000</v>
+      </c>
+      <c r="KG4">
+        <v>72000000</v>
+      </c>
+      <c r="KH4">
+        <v>72000000</v>
+      </c>
+      <c r="KI4">
+        <v>72000000</v>
+      </c>
+      <c r="KJ4">
+        <v>72000000</v>
+      </c>
+      <c r="KK4">
+        <v>72000000</v>
+      </c>
+      <c r="KL4">
+        <v>72000000</v>
+      </c>
+      <c r="KM4">
+        <v>72000000</v>
+      </c>
+      <c r="KN4">
+        <v>72000000</v>
+      </c>
+      <c r="KO4">
+        <v>72000000</v>
+      </c>
+      <c r="KP4">
+        <v>72000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -606,8 +1398,800 @@
       <c r="AL5">
         <v>37</v>
       </c>
+      <c r="AM5">
+        <v>38</v>
+      </c>
+      <c r="AN5">
+        <v>39</v>
+      </c>
+      <c r="AO5">
+        <v>40</v>
+      </c>
+      <c r="AP5">
+        <v>41</v>
+      </c>
+      <c r="AQ5">
+        <v>42</v>
+      </c>
+      <c r="AR5">
+        <v>43</v>
+      </c>
+      <c r="AS5">
+        <v>44</v>
+      </c>
+      <c r="AT5">
+        <v>45</v>
+      </c>
+      <c r="AU5">
+        <v>46</v>
+      </c>
+      <c r="AV5">
+        <v>47</v>
+      </c>
+      <c r="AW5">
+        <v>48</v>
+      </c>
+      <c r="AX5">
+        <v>49</v>
+      </c>
+      <c r="AY5">
+        <v>50</v>
+      </c>
+      <c r="AZ5">
+        <v>51</v>
+      </c>
+      <c r="BA5">
+        <v>52</v>
+      </c>
+      <c r="BB5">
+        <v>53</v>
+      </c>
+      <c r="BC5">
+        <v>54</v>
+      </c>
+      <c r="BD5">
+        <v>55</v>
+      </c>
+      <c r="BE5">
+        <v>56</v>
+      </c>
+      <c r="BF5">
+        <v>57</v>
+      </c>
+      <c r="BG5">
+        <v>58</v>
+      </c>
+      <c r="BH5">
+        <v>59</v>
+      </c>
+      <c r="BI5">
+        <v>60</v>
+      </c>
+      <c r="BJ5">
+        <v>61</v>
+      </c>
+      <c r="BK5">
+        <v>62</v>
+      </c>
+      <c r="BL5">
+        <v>63</v>
+      </c>
+      <c r="BM5">
+        <v>64</v>
+      </c>
+      <c r="BN5">
+        <v>65</v>
+      </c>
+      <c r="BO5">
+        <v>66</v>
+      </c>
+      <c r="BP5">
+        <v>67</v>
+      </c>
+      <c r="BQ5">
+        <v>68</v>
+      </c>
+      <c r="BR5">
+        <v>69</v>
+      </c>
+      <c r="BS5">
+        <v>70</v>
+      </c>
+      <c r="BT5">
+        <v>71</v>
+      </c>
+      <c r="BU5">
+        <v>72</v>
+      </c>
+      <c r="BV5">
+        <v>73</v>
+      </c>
+      <c r="BW5">
+        <v>74</v>
+      </c>
+      <c r="BX5">
+        <v>75</v>
+      </c>
+      <c r="BY5">
+        <v>76</v>
+      </c>
+      <c r="BZ5">
+        <v>77</v>
+      </c>
+      <c r="CA5">
+        <v>78</v>
+      </c>
+      <c r="CB5">
+        <v>79</v>
+      </c>
+      <c r="CC5">
+        <v>80</v>
+      </c>
+      <c r="CD5">
+        <v>81</v>
+      </c>
+      <c r="CE5">
+        <v>82</v>
+      </c>
+      <c r="CF5">
+        <v>83</v>
+      </c>
+      <c r="CG5">
+        <v>84</v>
+      </c>
+      <c r="CH5">
+        <v>85</v>
+      </c>
+      <c r="CI5">
+        <v>86</v>
+      </c>
+      <c r="CJ5">
+        <v>87</v>
+      </c>
+      <c r="CK5">
+        <v>88</v>
+      </c>
+      <c r="CL5">
+        <v>89</v>
+      </c>
+      <c r="CM5">
+        <v>90</v>
+      </c>
+      <c r="CN5">
+        <v>91</v>
+      </c>
+      <c r="CO5">
+        <v>92</v>
+      </c>
+      <c r="CP5">
+        <v>93</v>
+      </c>
+      <c r="CQ5">
+        <v>94</v>
+      </c>
+      <c r="CR5">
+        <v>95</v>
+      </c>
+      <c r="CS5">
+        <v>96</v>
+      </c>
+      <c r="CT5">
+        <v>97</v>
+      </c>
+      <c r="CU5">
+        <v>98</v>
+      </c>
+      <c r="CV5">
+        <v>99</v>
+      </c>
+      <c r="CW5">
+        <v>100</v>
+      </c>
+      <c r="CX5">
+        <v>101</v>
+      </c>
+      <c r="CY5">
+        <v>102</v>
+      </c>
+      <c r="CZ5">
+        <v>103</v>
+      </c>
+      <c r="DA5">
+        <v>104</v>
+      </c>
+      <c r="DB5">
+        <v>105</v>
+      </c>
+      <c r="DC5">
+        <v>106</v>
+      </c>
+      <c r="DD5">
+        <v>107</v>
+      </c>
+      <c r="DE5">
+        <v>108</v>
+      </c>
+      <c r="DF5">
+        <v>109</v>
+      </c>
+      <c r="DG5">
+        <v>110</v>
+      </c>
+      <c r="DH5">
+        <v>111</v>
+      </c>
+      <c r="DI5">
+        <v>112</v>
+      </c>
+      <c r="DJ5">
+        <v>113</v>
+      </c>
+      <c r="DK5">
+        <v>114</v>
+      </c>
+      <c r="DL5">
+        <v>115</v>
+      </c>
+      <c r="DM5">
+        <v>116</v>
+      </c>
+      <c r="DN5">
+        <v>117</v>
+      </c>
+      <c r="DO5">
+        <v>118</v>
+      </c>
+      <c r="DP5">
+        <v>119</v>
+      </c>
+      <c r="DQ5">
+        <v>120</v>
+      </c>
+      <c r="DR5">
+        <v>121</v>
+      </c>
+      <c r="DS5">
+        <v>122</v>
+      </c>
+      <c r="DT5">
+        <v>123</v>
+      </c>
+      <c r="DU5">
+        <v>124</v>
+      </c>
+      <c r="DV5">
+        <v>125</v>
+      </c>
+      <c r="DW5">
+        <v>126</v>
+      </c>
+      <c r="DX5">
+        <v>127</v>
+      </c>
+      <c r="DY5">
+        <v>128</v>
+      </c>
+      <c r="DZ5">
+        <v>129</v>
+      </c>
+      <c r="EA5">
+        <v>130</v>
+      </c>
+      <c r="EB5">
+        <v>131</v>
+      </c>
+      <c r="EC5">
+        <v>132</v>
+      </c>
+      <c r="ED5">
+        <v>133</v>
+      </c>
+      <c r="EE5">
+        <v>134</v>
+      </c>
+      <c r="EF5">
+        <v>135</v>
+      </c>
+      <c r="EG5">
+        <v>136</v>
+      </c>
+      <c r="EH5">
+        <v>137</v>
+      </c>
+      <c r="EI5">
+        <v>138</v>
+      </c>
+      <c r="EJ5">
+        <v>139</v>
+      </c>
+      <c r="EK5">
+        <v>140</v>
+      </c>
+      <c r="EL5">
+        <v>141</v>
+      </c>
+      <c r="EM5">
+        <v>142</v>
+      </c>
+      <c r="EN5">
+        <v>143</v>
+      </c>
+      <c r="EO5">
+        <v>144</v>
+      </c>
+      <c r="EP5">
+        <v>145</v>
+      </c>
+      <c r="EQ5">
+        <v>146</v>
+      </c>
+      <c r="ER5">
+        <v>147</v>
+      </c>
+      <c r="ES5">
+        <v>148</v>
+      </c>
+      <c r="ET5">
+        <v>149</v>
+      </c>
+      <c r="EU5">
+        <v>150</v>
+      </c>
+      <c r="EV5">
+        <v>151</v>
+      </c>
+      <c r="EW5">
+        <v>152</v>
+      </c>
+      <c r="EX5">
+        <v>153</v>
+      </c>
+      <c r="EY5">
+        <v>154</v>
+      </c>
+      <c r="EZ5">
+        <v>155</v>
+      </c>
+      <c r="FA5">
+        <v>156</v>
+      </c>
+      <c r="FB5">
+        <v>157</v>
+      </c>
+      <c r="FC5">
+        <v>158</v>
+      </c>
+      <c r="FD5">
+        <v>159</v>
+      </c>
+      <c r="FE5">
+        <v>160</v>
+      </c>
+      <c r="FF5">
+        <v>161</v>
+      </c>
+      <c r="FG5">
+        <v>162</v>
+      </c>
+      <c r="FH5">
+        <v>163</v>
+      </c>
+      <c r="FI5">
+        <v>164</v>
+      </c>
+      <c r="FJ5">
+        <v>165</v>
+      </c>
+      <c r="FK5">
+        <v>166</v>
+      </c>
+      <c r="FL5">
+        <v>167</v>
+      </c>
+      <c r="FM5">
+        <v>168</v>
+      </c>
+      <c r="FN5">
+        <v>169</v>
+      </c>
+      <c r="FO5">
+        <v>170</v>
+      </c>
+      <c r="FP5">
+        <v>171</v>
+      </c>
+      <c r="FQ5">
+        <v>172</v>
+      </c>
+      <c r="FR5">
+        <v>173</v>
+      </c>
+      <c r="FS5">
+        <v>174</v>
+      </c>
+      <c r="FT5">
+        <v>175</v>
+      </c>
+      <c r="FU5">
+        <v>176</v>
+      </c>
+      <c r="FV5">
+        <v>177</v>
+      </c>
+      <c r="FW5">
+        <v>178</v>
+      </c>
+      <c r="FX5">
+        <v>179</v>
+      </c>
+      <c r="FY5">
+        <v>180</v>
+      </c>
+      <c r="FZ5">
+        <v>181</v>
+      </c>
+      <c r="GA5">
+        <v>182</v>
+      </c>
+      <c r="GB5">
+        <v>183</v>
+      </c>
+      <c r="GC5">
+        <v>184</v>
+      </c>
+      <c r="GD5">
+        <v>185</v>
+      </c>
+      <c r="GE5">
+        <v>186</v>
+      </c>
+      <c r="GF5">
+        <v>187</v>
+      </c>
+      <c r="GG5">
+        <v>188</v>
+      </c>
+      <c r="GH5">
+        <v>189</v>
+      </c>
+      <c r="GI5">
+        <v>190</v>
+      </c>
+      <c r="GJ5">
+        <v>191</v>
+      </c>
+      <c r="GK5">
+        <v>192</v>
+      </c>
+      <c r="GL5">
+        <v>193</v>
+      </c>
+      <c r="GM5">
+        <v>194</v>
+      </c>
+      <c r="GN5">
+        <v>195</v>
+      </c>
+      <c r="GO5">
+        <v>196</v>
+      </c>
+      <c r="GP5">
+        <v>197</v>
+      </c>
+      <c r="GQ5">
+        <v>198</v>
+      </c>
+      <c r="GR5">
+        <v>199</v>
+      </c>
+      <c r="GS5">
+        <v>200</v>
+      </c>
+      <c r="GT5">
+        <v>201</v>
+      </c>
+      <c r="GU5">
+        <v>202</v>
+      </c>
+      <c r="GV5">
+        <v>203</v>
+      </c>
+      <c r="GW5">
+        <v>204</v>
+      </c>
+      <c r="GX5">
+        <v>205</v>
+      </c>
+      <c r="GY5">
+        <v>206</v>
+      </c>
+      <c r="GZ5">
+        <v>207</v>
+      </c>
+      <c r="HA5">
+        <v>208</v>
+      </c>
+      <c r="HB5">
+        <v>209</v>
+      </c>
+      <c r="HC5">
+        <v>210</v>
+      </c>
+      <c r="HD5">
+        <v>211</v>
+      </c>
+      <c r="HE5">
+        <v>212</v>
+      </c>
+      <c r="HF5">
+        <v>213</v>
+      </c>
+      <c r="HG5">
+        <v>214</v>
+      </c>
+      <c r="HH5">
+        <v>215</v>
+      </c>
+      <c r="HI5">
+        <v>216</v>
+      </c>
+      <c r="HJ5">
+        <v>217</v>
+      </c>
+      <c r="HK5">
+        <v>218</v>
+      </c>
+      <c r="HL5">
+        <v>219</v>
+      </c>
+      <c r="HM5">
+        <v>220</v>
+      </c>
+      <c r="HN5">
+        <v>221</v>
+      </c>
+      <c r="HO5">
+        <v>222</v>
+      </c>
+      <c r="HP5">
+        <v>223</v>
+      </c>
+      <c r="HQ5">
+        <v>224</v>
+      </c>
+      <c r="HR5">
+        <v>225</v>
+      </c>
+      <c r="HS5">
+        <v>226</v>
+      </c>
+      <c r="HT5">
+        <v>227</v>
+      </c>
+      <c r="HU5">
+        <v>228</v>
+      </c>
+      <c r="HV5">
+        <v>229</v>
+      </c>
+      <c r="HW5">
+        <v>230</v>
+      </c>
+      <c r="HX5">
+        <v>231</v>
+      </c>
+      <c r="HY5">
+        <v>232</v>
+      </c>
+      <c r="HZ5">
+        <v>233</v>
+      </c>
+      <c r="IA5">
+        <v>234</v>
+      </c>
+      <c r="IB5">
+        <v>235</v>
+      </c>
+      <c r="IC5">
+        <v>236</v>
+      </c>
+      <c r="ID5">
+        <v>237</v>
+      </c>
+      <c r="IE5">
+        <v>238</v>
+      </c>
+      <c r="IF5">
+        <v>239</v>
+      </c>
+      <c r="IG5">
+        <v>240</v>
+      </c>
+      <c r="IH5">
+        <v>241</v>
+      </c>
+      <c r="II5">
+        <v>242</v>
+      </c>
+      <c r="IJ5">
+        <v>243</v>
+      </c>
+      <c r="IK5">
+        <v>244</v>
+      </c>
+      <c r="IL5">
+        <v>245</v>
+      </c>
+      <c r="IM5">
+        <v>246</v>
+      </c>
+      <c r="IN5">
+        <v>247</v>
+      </c>
+      <c r="IO5">
+        <v>248</v>
+      </c>
+      <c r="IP5">
+        <v>249</v>
+      </c>
+      <c r="IQ5">
+        <v>250</v>
+      </c>
+      <c r="IR5">
+        <v>251</v>
+      </c>
+      <c r="IS5">
+        <v>252</v>
+      </c>
+      <c r="IT5">
+        <v>253</v>
+      </c>
+      <c r="IU5">
+        <v>254</v>
+      </c>
+      <c r="IV5">
+        <v>255</v>
+      </c>
+      <c r="IW5">
+        <v>256</v>
+      </c>
+      <c r="IX5">
+        <v>257</v>
+      </c>
+      <c r="IY5">
+        <v>258</v>
+      </c>
+      <c r="IZ5">
+        <v>259</v>
+      </c>
+      <c r="JA5">
+        <v>260</v>
+      </c>
+      <c r="JB5">
+        <v>261</v>
+      </c>
+      <c r="JC5">
+        <v>262</v>
+      </c>
+      <c r="JD5">
+        <v>263</v>
+      </c>
+      <c r="JE5">
+        <v>264</v>
+      </c>
+      <c r="JF5">
+        <v>265</v>
+      </c>
+      <c r="JG5">
+        <v>266</v>
+      </c>
+      <c r="JH5">
+        <v>267</v>
+      </c>
+      <c r="JI5">
+        <v>268</v>
+      </c>
+      <c r="JJ5">
+        <v>269</v>
+      </c>
+      <c r="JK5">
+        <v>270</v>
+      </c>
+      <c r="JL5">
+        <v>271</v>
+      </c>
+      <c r="JM5">
+        <v>272</v>
+      </c>
+      <c r="JN5">
+        <v>273</v>
+      </c>
+      <c r="JO5">
+        <v>274</v>
+      </c>
+      <c r="JP5">
+        <v>275</v>
+      </c>
+      <c r="JQ5">
+        <v>276</v>
+      </c>
+      <c r="JR5">
+        <v>277</v>
+      </c>
+      <c r="JS5">
+        <v>278</v>
+      </c>
+      <c r="JT5">
+        <v>279</v>
+      </c>
+      <c r="JU5">
+        <v>280</v>
+      </c>
+      <c r="JV5">
+        <v>281</v>
+      </c>
+      <c r="JW5">
+        <v>282</v>
+      </c>
+      <c r="JX5">
+        <v>283</v>
+      </c>
+      <c r="JY5">
+        <v>284</v>
+      </c>
+      <c r="JZ5">
+        <v>285</v>
+      </c>
+      <c r="KA5">
+        <v>286</v>
+      </c>
+      <c r="KB5">
+        <v>287</v>
+      </c>
+      <c r="KC5">
+        <v>288</v>
+      </c>
+      <c r="KD5">
+        <v>289</v>
+      </c>
+      <c r="KE5">
+        <v>290</v>
+      </c>
+      <c r="KF5">
+        <v>291</v>
+      </c>
+      <c r="KG5">
+        <v>292</v>
+      </c>
+      <c r="KH5">
+        <v>293</v>
+      </c>
+      <c r="KI5">
+        <v>294</v>
+      </c>
+      <c r="KJ5">
+        <v>295</v>
+      </c>
+      <c r="KK5">
+        <v>296</v>
+      </c>
+      <c r="KL5">
+        <v>297</v>
+      </c>
+      <c r="KM5">
+        <v>298</v>
+      </c>
+      <c r="KN5">
+        <v>299</v>
+      </c>
+      <c r="KO5">
+        <v>300</v>
+      </c>
+      <c r="KP5">
+        <v>301</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:302" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>B4/B5</f>
         <v>72000000</v>
@@ -749,182 +2333,2294 @@
         <v>2057142.857142857</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6" si="24">AK4/AK5</f>
+        <f t="shared" ref="AK6:AV6" si="24">AK4/AK5</f>
         <v>2000000</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6" si="25">AL4/AL5</f>
+        <f t="shared" ref="AL6:AP6" si="25">AL4/AL5</f>
         <v>1945945.945945946</v>
       </c>
+      <c r="AM6">
+        <f t="shared" si="24"/>
+        <v>1894736.8421052631</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="24"/>
+        <v>1846153.8461538462</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="24"/>
+        <v>1800000</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="24"/>
+        <v>1756097.5609756098</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="24"/>
+        <v>1714285.7142857143</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="24"/>
+        <v>1674418.6046511629</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="24"/>
+        <v>1636363.6363636365</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="24"/>
+        <v>1600000</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="24"/>
+        <v>1565217.3913043479</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="24"/>
+        <v>1531914.8936170214</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ref="AW6:BX6" si="26">AW4/AW5</f>
+        <v>1500000</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="26"/>
+        <v>1469387.7551020407</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="26"/>
+        <v>1440000</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="26"/>
+        <v>1411764.705882353</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="26"/>
+        <v>1384615.3846153845</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="26"/>
+        <v>1358490.5660377359</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="26"/>
+        <v>1333333.3333333333</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="26"/>
+        <v>1309090.9090909092</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="26"/>
+        <v>1285714.2857142857</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="26"/>
+        <v>1263157.894736842</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="26"/>
+        <v>1241379.3103448276</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="26"/>
+        <v>1220338.9830508474</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="26"/>
+        <v>1200000</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" si="26"/>
+        <v>1180327.8688524591</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" si="26"/>
+        <v>1161290.3225806451</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" si="26"/>
+        <v>1142857.142857143</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" si="26"/>
+        <v>1125000</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" si="26"/>
+        <v>1107692.3076923077</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" si="26"/>
+        <v>1090909.0909090908</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" si="26"/>
+        <v>1074626.8656716419</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" si="26"/>
+        <v>1058823.5294117648</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="26"/>
+        <v>1043478.2608695652</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" si="26"/>
+        <v>1028571.4285714285</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" si="26"/>
+        <v>1014084.5070422535</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" si="26"/>
+        <v>1000000</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" si="26"/>
+        <v>986301.36986301374</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" si="26"/>
+        <v>972972.97297297302</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" si="26"/>
+        <v>960000</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" ref="BY6:CD6" si="27">BY4/BY5</f>
+        <v>947368.42105263157</v>
+      </c>
+      <c r="BZ6">
+        <f t="shared" si="27"/>
+        <v>935064.93506493501</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" si="27"/>
+        <v>923076.92307692312</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" si="27"/>
+        <v>911392.4050632912</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" si="27"/>
+        <v>900000</v>
+      </c>
+      <c r="CD6">
+        <f t="shared" si="27"/>
+        <v>888888.88888888888</v>
+      </c>
+      <c r="CE6">
+        <f t="shared" ref="CE6:EC6" si="28">CE4/CE5</f>
+        <v>878048.78048780491</v>
+      </c>
+      <c r="CF6">
+        <f t="shared" si="28"/>
+        <v>867469.87951807224</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" si="28"/>
+        <v>857142.85714285716</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" si="28"/>
+        <v>847058.82352941181</v>
+      </c>
+      <c r="CI6">
+        <f t="shared" si="28"/>
+        <v>837209.30232558143</v>
+      </c>
+      <c r="CJ6">
+        <f t="shared" si="28"/>
+        <v>827586.20689655177</v>
+      </c>
+      <c r="CK6">
+        <f t="shared" si="28"/>
+        <v>818181.81818181823</v>
+      </c>
+      <c r="CL6">
+        <f t="shared" si="28"/>
+        <v>808988.76404494385</v>
+      </c>
+      <c r="CM6">
+        <f t="shared" si="28"/>
+        <v>800000</v>
+      </c>
+      <c r="CN6">
+        <f t="shared" si="28"/>
+        <v>791208.7912087912</v>
+      </c>
+      <c r="CO6">
+        <f t="shared" si="28"/>
+        <v>782608.69565217395</v>
+      </c>
+      <c r="CP6">
+        <f t="shared" si="28"/>
+        <v>774193.54838709673</v>
+      </c>
+      <c r="CQ6">
+        <f t="shared" si="28"/>
+        <v>765957.44680851069</v>
+      </c>
+      <c r="CR6">
+        <f t="shared" si="28"/>
+        <v>757894.73684210528</v>
+      </c>
+      <c r="CS6">
+        <f t="shared" si="28"/>
+        <v>750000</v>
+      </c>
+      <c r="CT6">
+        <f t="shared" si="28"/>
+        <v>742268.04123711342</v>
+      </c>
+      <c r="CU6">
+        <f t="shared" si="28"/>
+        <v>734693.87755102036</v>
+      </c>
+      <c r="CV6">
+        <f t="shared" si="28"/>
+        <v>727272.72727272729</v>
+      </c>
+      <c r="CW6">
+        <f t="shared" si="28"/>
+        <v>720000</v>
+      </c>
+      <c r="CX6">
+        <f t="shared" si="28"/>
+        <v>712871.28712871287</v>
+      </c>
+      <c r="CY6">
+        <f t="shared" si="28"/>
+        <v>705882.3529411765</v>
+      </c>
+      <c r="CZ6">
+        <f t="shared" si="28"/>
+        <v>699029.12621359224</v>
+      </c>
+      <c r="DA6">
+        <f t="shared" si="28"/>
+        <v>692307.69230769225</v>
+      </c>
+      <c r="DB6">
+        <f t="shared" si="28"/>
+        <v>685714.28571428568</v>
+      </c>
+      <c r="DC6">
+        <f t="shared" si="28"/>
+        <v>679245.28301886795</v>
+      </c>
+      <c r="DD6">
+        <f t="shared" si="28"/>
+        <v>672897.1962616822</v>
+      </c>
+      <c r="DE6">
+        <f t="shared" si="28"/>
+        <v>666666.66666666663</v>
+      </c>
+      <c r="DF6">
+        <f t="shared" si="28"/>
+        <v>660550.45871559635</v>
+      </c>
+      <c r="DG6">
+        <f t="shared" si="28"/>
+        <v>654545.45454545459</v>
+      </c>
+      <c r="DH6">
+        <f t="shared" si="28"/>
+        <v>648648.64864864864</v>
+      </c>
+      <c r="DI6">
+        <f t="shared" si="28"/>
+        <v>642857.14285714284</v>
+      </c>
+      <c r="DJ6">
+        <f t="shared" si="28"/>
+        <v>637168.14159292041</v>
+      </c>
+      <c r="DK6">
+        <f t="shared" si="28"/>
+        <v>631578.94736842101</v>
+      </c>
+      <c r="DL6">
+        <f t="shared" si="28"/>
+        <v>626086.95652173914</v>
+      </c>
+      <c r="DM6">
+        <f t="shared" si="28"/>
+        <v>620689.6551724138</v>
+      </c>
+      <c r="DN6">
+        <f t="shared" si="28"/>
+        <v>615384.61538461538</v>
+      </c>
+      <c r="DO6">
+        <f t="shared" si="28"/>
+        <v>610169.49152542371</v>
+      </c>
+      <c r="DP6">
+        <f t="shared" si="28"/>
+        <v>605042.01680672274</v>
+      </c>
+      <c r="DQ6">
+        <f t="shared" si="28"/>
+        <v>600000</v>
+      </c>
+      <c r="DR6">
+        <f t="shared" si="28"/>
+        <v>595041.32231404958</v>
+      </c>
+      <c r="DS6">
+        <f t="shared" si="28"/>
+        <v>590163.93442622956</v>
+      </c>
+      <c r="DT6">
+        <f t="shared" si="28"/>
+        <v>585365.85365853657</v>
+      </c>
+      <c r="DU6">
+        <f t="shared" si="28"/>
+        <v>580645.16129032255</v>
+      </c>
+      <c r="DV6">
+        <f t="shared" si="28"/>
+        <v>576000</v>
+      </c>
+      <c r="DW6">
+        <f t="shared" si="28"/>
+        <v>571428.57142857148</v>
+      </c>
+      <c r="DX6">
+        <f t="shared" si="28"/>
+        <v>566929.13385826768</v>
+      </c>
+      <c r="DY6">
+        <f t="shared" si="28"/>
+        <v>562500</v>
+      </c>
+      <c r="DZ6">
+        <f t="shared" si="28"/>
+        <v>558139.53488372092</v>
+      </c>
+      <c r="EA6">
+        <f t="shared" si="28"/>
+        <v>553846.15384615387</v>
+      </c>
+      <c r="EB6">
+        <f t="shared" si="28"/>
+        <v>549618.32061068702</v>
+      </c>
+      <c r="EC6">
+        <f t="shared" si="28"/>
+        <v>545454.54545454541</v>
+      </c>
+      <c r="ED6">
+        <f t="shared" ref="ED6:GO6" si="29">ED4/ED5</f>
+        <v>541353.3834586466</v>
+      </c>
+      <c r="EE6">
+        <f t="shared" si="29"/>
+        <v>537313.43283582095</v>
+      </c>
+      <c r="EF6">
+        <f t="shared" si="29"/>
+        <v>533333.33333333337</v>
+      </c>
+      <c r="EG6">
+        <f t="shared" si="29"/>
+        <v>529411.76470588241</v>
+      </c>
+      <c r="EH6">
+        <f t="shared" si="29"/>
+        <v>525547.44525547442</v>
+      </c>
+      <c r="EI6">
+        <f t="shared" si="29"/>
+        <v>521739.13043478259</v>
+      </c>
+      <c r="EJ6">
+        <f t="shared" si="29"/>
+        <v>517985.61151079135</v>
+      </c>
+      <c r="EK6">
+        <f t="shared" si="29"/>
+        <v>514285.71428571426</v>
+      </c>
+      <c r="EL6">
+        <f t="shared" si="29"/>
+        <v>510638.29787234042</v>
+      </c>
+      <c r="EM6">
+        <f t="shared" si="29"/>
+        <v>507042.25352112675</v>
+      </c>
+      <c r="EN6">
+        <f t="shared" si="29"/>
+        <v>503496.50349650352</v>
+      </c>
+      <c r="EO6">
+        <f t="shared" si="29"/>
+        <v>500000</v>
+      </c>
+      <c r="EP6">
+        <f t="shared" si="29"/>
+        <v>496551.72413793101</v>
+      </c>
+      <c r="EQ6">
+        <f t="shared" si="29"/>
+        <v>493150.68493150687</v>
+      </c>
+      <c r="ER6">
+        <f t="shared" si="29"/>
+        <v>489795.91836734692</v>
+      </c>
+      <c r="ES6">
+        <f t="shared" si="29"/>
+        <v>486486.48648648651</v>
+      </c>
+      <c r="ET6">
+        <f t="shared" si="29"/>
+        <v>483221.47651006712</v>
+      </c>
+      <c r="EU6">
+        <f t="shared" si="29"/>
+        <v>480000</v>
+      </c>
+      <c r="EV6">
+        <f t="shared" si="29"/>
+        <v>476821.19205298013</v>
+      </c>
+      <c r="EW6">
+        <f t="shared" si="29"/>
+        <v>473684.21052631579</v>
+      </c>
+      <c r="EX6">
+        <f t="shared" si="29"/>
+        <v>470588.23529411765</v>
+      </c>
+      <c r="EY6">
+        <f t="shared" si="29"/>
+        <v>467532.4675324675</v>
+      </c>
+      <c r="EZ6">
+        <f t="shared" si="29"/>
+        <v>464516.12903225806</v>
+      </c>
+      <c r="FA6">
+        <f t="shared" si="29"/>
+        <v>461538.46153846156</v>
+      </c>
+      <c r="FB6">
+        <f t="shared" si="29"/>
+        <v>458598.72611464967</v>
+      </c>
+      <c r="FC6">
+        <f t="shared" si="29"/>
+        <v>455696.2025316456</v>
+      </c>
+      <c r="FD6">
+        <f t="shared" si="29"/>
+        <v>452830.1886792453</v>
+      </c>
+      <c r="FE6">
+        <f t="shared" si="29"/>
+        <v>450000</v>
+      </c>
+      <c r="FF6">
+        <f t="shared" si="29"/>
+        <v>447204.96894409938</v>
+      </c>
+      <c r="FG6">
+        <f t="shared" si="29"/>
+        <v>444444.44444444444</v>
+      </c>
+      <c r="FH6">
+        <f t="shared" si="29"/>
+        <v>441717.79141104297</v>
+      </c>
+      <c r="FI6">
+        <f t="shared" si="29"/>
+        <v>439024.39024390245</v>
+      </c>
+      <c r="FJ6">
+        <f t="shared" si="29"/>
+        <v>436363.63636363635</v>
+      </c>
+      <c r="FK6">
+        <f t="shared" si="29"/>
+        <v>433734.93975903612</v>
+      </c>
+      <c r="FL6">
+        <f t="shared" si="29"/>
+        <v>431137.72455089819</v>
+      </c>
+      <c r="FM6">
+        <f t="shared" si="29"/>
+        <v>428571.42857142858</v>
+      </c>
+      <c r="FN6">
+        <f t="shared" si="29"/>
+        <v>426035.50295857986</v>
+      </c>
+      <c r="FO6">
+        <f t="shared" si="29"/>
+        <v>423529.4117647059</v>
+      </c>
+      <c r="FP6">
+        <f t="shared" si="29"/>
+        <v>421052.63157894736</v>
+      </c>
+      <c r="FQ6">
+        <f t="shared" si="29"/>
+        <v>418604.65116279072</v>
+      </c>
+      <c r="FR6">
+        <f t="shared" si="29"/>
+        <v>416184.9710982659</v>
+      </c>
+      <c r="FS6">
+        <f t="shared" si="29"/>
+        <v>413793.10344827588</v>
+      </c>
+      <c r="FT6">
+        <f t="shared" si="29"/>
+        <v>411428.57142857142</v>
+      </c>
+      <c r="FU6">
+        <f t="shared" si="29"/>
+        <v>409090.90909090912</v>
+      </c>
+      <c r="FV6">
+        <f t="shared" si="29"/>
+        <v>406779.66101694916</v>
+      </c>
+      <c r="FW6">
+        <f t="shared" si="29"/>
+        <v>404494.38202247192</v>
+      </c>
+      <c r="FX6">
+        <f t="shared" si="29"/>
+        <v>402234.63687150838</v>
+      </c>
+      <c r="FY6">
+        <f t="shared" si="29"/>
+        <v>400000</v>
+      </c>
+      <c r="FZ6">
+        <f t="shared" si="29"/>
+        <v>397790.05524861877</v>
+      </c>
+      <c r="GA6">
+        <f t="shared" si="29"/>
+        <v>395604.3956043956</v>
+      </c>
+      <c r="GB6">
+        <f t="shared" si="29"/>
+        <v>393442.62295081967</v>
+      </c>
+      <c r="GC6">
+        <f t="shared" si="29"/>
+        <v>391304.34782608697</v>
+      </c>
+      <c r="GD6">
+        <f t="shared" si="29"/>
+        <v>389189.18918918917</v>
+      </c>
+      <c r="GE6">
+        <f t="shared" si="29"/>
+        <v>387096.77419354836</v>
+      </c>
+      <c r="GF6">
+        <f t="shared" si="29"/>
+        <v>385026.73796791444</v>
+      </c>
+      <c r="GG6">
+        <f t="shared" si="29"/>
+        <v>382978.72340425535</v>
+      </c>
+      <c r="GH6">
+        <f t="shared" si="29"/>
+        <v>380952.38095238095</v>
+      </c>
+      <c r="GI6">
+        <f t="shared" si="29"/>
+        <v>378947.36842105264</v>
+      </c>
+      <c r="GJ6">
+        <f t="shared" si="29"/>
+        <v>376963.3507853403</v>
+      </c>
+      <c r="GK6">
+        <f t="shared" si="29"/>
+        <v>375000</v>
+      </c>
+      <c r="GL6">
+        <f t="shared" si="29"/>
+        <v>373056.99481865286</v>
+      </c>
+      <c r="GM6">
+        <f t="shared" si="29"/>
+        <v>371134.02061855671</v>
+      </c>
+      <c r="GN6">
+        <f t="shared" si="29"/>
+        <v>369230.76923076925</v>
+      </c>
+      <c r="GO6">
+        <f t="shared" si="29"/>
+        <v>367346.93877551018</v>
+      </c>
+      <c r="GP6">
+        <f t="shared" ref="GP6:JA6" si="30">GP4/GP5</f>
+        <v>365482.23350253806</v>
+      </c>
+      <c r="GQ6">
+        <f t="shared" si="30"/>
+        <v>363636.36363636365</v>
+      </c>
+      <c r="GR6">
+        <f t="shared" si="30"/>
+        <v>361809.04522613063</v>
+      </c>
+      <c r="GS6">
+        <f t="shared" si="30"/>
+        <v>360000</v>
+      </c>
+      <c r="GT6">
+        <f t="shared" si="30"/>
+        <v>358208.95522388059</v>
+      </c>
+      <c r="GU6">
+        <f t="shared" si="30"/>
+        <v>356435.64356435643</v>
+      </c>
+      <c r="GV6">
+        <f t="shared" si="30"/>
+        <v>354679.80295566504</v>
+      </c>
+      <c r="GW6">
+        <f t="shared" si="30"/>
+        <v>352941.17647058825</v>
+      </c>
+      <c r="GX6">
+        <f t="shared" si="30"/>
+        <v>351219.51219512196</v>
+      </c>
+      <c r="GY6">
+        <f t="shared" si="30"/>
+        <v>349514.56310679612</v>
+      </c>
+      <c r="GZ6">
+        <f t="shared" si="30"/>
+        <v>347826.08695652173</v>
+      </c>
+      <c r="HA6">
+        <f t="shared" si="30"/>
+        <v>346153.84615384613</v>
+      </c>
+      <c r="HB6">
+        <f t="shared" si="30"/>
+        <v>344497.60765550239</v>
+      </c>
+      <c r="HC6">
+        <f t="shared" si="30"/>
+        <v>342857.14285714284</v>
+      </c>
+      <c r="HD6">
+        <f t="shared" si="30"/>
+        <v>341232.22748815164</v>
+      </c>
+      <c r="HE6">
+        <f t="shared" si="30"/>
+        <v>339622.64150943398</v>
+      </c>
+      <c r="HF6">
+        <f t="shared" si="30"/>
+        <v>338028.1690140845</v>
+      </c>
+      <c r="HG6">
+        <f t="shared" si="30"/>
+        <v>336448.5981308411</v>
+      </c>
+      <c r="HH6">
+        <f t="shared" si="30"/>
+        <v>334883.72093023255</v>
+      </c>
+      <c r="HI6">
+        <f t="shared" si="30"/>
+        <v>333333.33333333331</v>
+      </c>
+      <c r="HJ6">
+        <f t="shared" si="30"/>
+        <v>331797.23502304149</v>
+      </c>
+      <c r="HK6">
+        <f t="shared" si="30"/>
+        <v>330275.22935779818</v>
+      </c>
+      <c r="HL6">
+        <f t="shared" si="30"/>
+        <v>328767.12328767125</v>
+      </c>
+      <c r="HM6">
+        <f t="shared" si="30"/>
+        <v>327272.72727272729</v>
+      </c>
+      <c r="HN6">
+        <f t="shared" si="30"/>
+        <v>325791.85520361993</v>
+      </c>
+      <c r="HO6">
+        <f t="shared" si="30"/>
+        <v>324324.32432432432</v>
+      </c>
+      <c r="HP6">
+        <f t="shared" si="30"/>
+        <v>322869.95515695069</v>
+      </c>
+      <c r="HQ6">
+        <f t="shared" si="30"/>
+        <v>321428.57142857142</v>
+      </c>
+      <c r="HR6">
+        <f t="shared" si="30"/>
+        <v>320000</v>
+      </c>
+      <c r="HS6">
+        <f t="shared" si="30"/>
+        <v>318584.0707964602</v>
+      </c>
+      <c r="HT6">
+        <f t="shared" si="30"/>
+        <v>317180.61674008809</v>
+      </c>
+      <c r="HU6">
+        <f t="shared" si="30"/>
+        <v>315789.4736842105</v>
+      </c>
+      <c r="HV6">
+        <f t="shared" si="30"/>
+        <v>314410.48034934496</v>
+      </c>
+      <c r="HW6">
+        <f t="shared" si="30"/>
+        <v>313043.47826086957</v>
+      </c>
+      <c r="HX6">
+        <f t="shared" si="30"/>
+        <v>311688.31168831169</v>
+      </c>
+      <c r="HY6">
+        <f t="shared" si="30"/>
+        <v>310344.8275862069</v>
+      </c>
+      <c r="HZ6">
+        <f t="shared" si="30"/>
+        <v>309012.87553648069</v>
+      </c>
+      <c r="IA6">
+        <f t="shared" si="30"/>
+        <v>307692.30769230769</v>
+      </c>
+      <c r="IB6">
+        <f t="shared" si="30"/>
+        <v>306382.97872340423</v>
+      </c>
+      <c r="IC6">
+        <f t="shared" si="30"/>
+        <v>305084.74576271186</v>
+      </c>
+      <c r="ID6">
+        <f t="shared" si="30"/>
+        <v>303797.4683544304</v>
+      </c>
+      <c r="IE6">
+        <f t="shared" si="30"/>
+        <v>302521.00840336137</v>
+      </c>
+      <c r="IF6">
+        <f t="shared" si="30"/>
+        <v>301255.230125523</v>
+      </c>
+      <c r="IG6">
+        <f t="shared" si="30"/>
+        <v>300000</v>
+      </c>
+      <c r="IH6">
+        <f t="shared" si="30"/>
+        <v>298755.18672199169</v>
+      </c>
+      <c r="II6">
+        <f t="shared" si="30"/>
+        <v>297520.66115702479</v>
+      </c>
+      <c r="IJ6">
+        <f t="shared" si="30"/>
+        <v>296296.29629629629</v>
+      </c>
+      <c r="IK6">
+        <f t="shared" si="30"/>
+        <v>295081.96721311478</v>
+      </c>
+      <c r="IL6">
+        <f t="shared" si="30"/>
+        <v>293877.55102040817</v>
+      </c>
+      <c r="IM6">
+        <f t="shared" si="30"/>
+        <v>292682.92682926828</v>
+      </c>
+      <c r="IN6">
+        <f t="shared" si="30"/>
+        <v>291497.975708502</v>
+      </c>
+      <c r="IO6">
+        <f t="shared" si="30"/>
+        <v>290322.58064516127</v>
+      </c>
+      <c r="IP6">
+        <f t="shared" si="30"/>
+        <v>289156.6265060241</v>
+      </c>
+      <c r="IQ6">
+        <f t="shared" si="30"/>
+        <v>288000</v>
+      </c>
+      <c r="IR6">
+        <f t="shared" si="30"/>
+        <v>286852.58964143426</v>
+      </c>
+      <c r="IS6">
+        <f t="shared" si="30"/>
+        <v>285714.28571428574</v>
+      </c>
+      <c r="IT6">
+        <f t="shared" si="30"/>
+        <v>284584.98023715417</v>
+      </c>
+      <c r="IU6">
+        <f t="shared" si="30"/>
+        <v>283464.56692913384</v>
+      </c>
+      <c r="IV6">
+        <f t="shared" si="30"/>
+        <v>282352.9411764706</v>
+      </c>
+      <c r="IW6">
+        <f t="shared" si="30"/>
+        <v>281250</v>
+      </c>
+      <c r="IX6">
+        <f t="shared" si="30"/>
+        <v>280155.64202334633</v>
+      </c>
+      <c r="IY6">
+        <f t="shared" si="30"/>
+        <v>279069.76744186046</v>
+      </c>
+      <c r="IZ6">
+        <f t="shared" si="30"/>
+        <v>277992.27799227799</v>
+      </c>
+      <c r="JA6">
+        <f t="shared" si="30"/>
+        <v>276923.07692307694</v>
+      </c>
+      <c r="JB6">
+        <f t="shared" ref="JB6:KP6" si="31">JB4/JB5</f>
+        <v>275862.06896551722</v>
+      </c>
+      <c r="JC6">
+        <f t="shared" si="31"/>
+        <v>274809.16030534351</v>
+      </c>
+      <c r="JD6">
+        <f t="shared" si="31"/>
+        <v>273764.25855513307</v>
+      </c>
+      <c r="JE6">
+        <f t="shared" si="31"/>
+        <v>272727.27272727271</v>
+      </c>
+      <c r="JF6">
+        <f t="shared" si="31"/>
+        <v>271698.11320754717</v>
+      </c>
+      <c r="JG6">
+        <f t="shared" si="31"/>
+        <v>270676.6917293233</v>
+      </c>
+      <c r="JH6">
+        <f t="shared" si="31"/>
+        <v>269662.92134831462</v>
+      </c>
+      <c r="JI6">
+        <f t="shared" si="31"/>
+        <v>268656.71641791047</v>
+      </c>
+      <c r="JJ6">
+        <f t="shared" si="31"/>
+        <v>267657.99256505579</v>
+      </c>
+      <c r="JK6">
+        <f t="shared" si="31"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="JL6">
+        <f t="shared" si="31"/>
+        <v>265682.65682656824</v>
+      </c>
+      <c r="JM6">
+        <f t="shared" si="31"/>
+        <v>264705.8823529412</v>
+      </c>
+      <c r="JN6">
+        <f t="shared" si="31"/>
+        <v>263736.26373626373</v>
+      </c>
+      <c r="JO6">
+        <f t="shared" si="31"/>
+        <v>262773.72262773721</v>
+      </c>
+      <c r="JP6">
+        <f t="shared" si="31"/>
+        <v>261818.18181818182</v>
+      </c>
+      <c r="JQ6">
+        <f t="shared" si="31"/>
+        <v>260869.5652173913</v>
+      </c>
+      <c r="JR6">
+        <f t="shared" si="31"/>
+        <v>259927.79783393501</v>
+      </c>
+      <c r="JS6">
+        <f t="shared" si="31"/>
+        <v>258992.80575539568</v>
+      </c>
+      <c r="JT6">
+        <f t="shared" si="31"/>
+        <v>258064.51612903227</v>
+      </c>
+      <c r="JU6">
+        <f t="shared" si="31"/>
+        <v>257142.85714285713</v>
+      </c>
+      <c r="JV6">
+        <f t="shared" si="31"/>
+        <v>256227.75800711743</v>
+      </c>
+      <c r="JW6">
+        <f t="shared" si="31"/>
+        <v>255319.14893617021</v>
+      </c>
+      <c r="JX6">
+        <f t="shared" si="31"/>
+        <v>254416.96113074204</v>
+      </c>
+      <c r="JY6">
+        <f t="shared" si="31"/>
+        <v>253521.12676056338</v>
+      </c>
+      <c r="JZ6">
+        <f t="shared" si="31"/>
+        <v>252631.57894736843</v>
+      </c>
+      <c r="KA6">
+        <f t="shared" si="31"/>
+        <v>251748.25174825176</v>
+      </c>
+      <c r="KB6">
+        <f t="shared" si="31"/>
+        <v>250871.08013937282</v>
+      </c>
+      <c r="KC6">
+        <f t="shared" si="31"/>
+        <v>250000</v>
+      </c>
+      <c r="KD6">
+        <f t="shared" si="31"/>
+        <v>249134.94809688581</v>
+      </c>
+      <c r="KE6">
+        <f t="shared" si="31"/>
+        <v>248275.86206896551</v>
+      </c>
+      <c r="KF6">
+        <f t="shared" si="31"/>
+        <v>247422.68041237115</v>
+      </c>
+      <c r="KG6">
+        <f t="shared" si="31"/>
+        <v>246575.34246575343</v>
+      </c>
+      <c r="KH6">
+        <f t="shared" si="31"/>
+        <v>245733.78839590444</v>
+      </c>
+      <c r="KI6">
+        <f t="shared" si="31"/>
+        <v>244897.95918367346</v>
+      </c>
+      <c r="KJ6">
+        <f t="shared" si="31"/>
+        <v>244067.79661016949</v>
+      </c>
+      <c r="KK6">
+        <f t="shared" si="31"/>
+        <v>243243.24324324325</v>
+      </c>
+      <c r="KL6">
+        <f t="shared" si="31"/>
+        <v>242424.24242424243</v>
+      </c>
+      <c r="KM6">
+        <f t="shared" si="31"/>
+        <v>241610.73825503356</v>
+      </c>
+      <c r="KN6">
+        <f t="shared" si="31"/>
+        <v>240802.67558528428</v>
+      </c>
+      <c r="KO6">
+        <f t="shared" si="31"/>
+        <v>240000</v>
+      </c>
+      <c r="KP6">
+        <f t="shared" si="31"/>
+        <v>239202.65780730898</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <f>B6/$B$10</f>
-        <v>360000</v>
+        <v>3600</v>
       </c>
       <c r="C7">
         <f>C6/$B$10</f>
-        <v>180000</v>
+        <v>1800</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:I7" si="26">D6/$B$10</f>
-        <v>120000</v>
+        <f t="shared" ref="D7:I7" si="32">D6/$B$10</f>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <f t="shared" si="26"/>
-        <v>90000</v>
+        <f t="shared" si="32"/>
+        <v>900</v>
       </c>
       <c r="F7">
-        <f t="shared" si="26"/>
-        <v>72000</v>
+        <f t="shared" si="32"/>
+        <v>720</v>
       </c>
       <c r="G7">
-        <f t="shared" si="26"/>
-        <v>60000</v>
+        <f t="shared" si="32"/>
+        <v>600</v>
       </c>
       <c r="H7">
-        <f t="shared" si="26"/>
-        <v>51428.571428571428</v>
+        <f t="shared" si="32"/>
+        <v>514.28571428571422</v>
       </c>
       <c r="I7">
-        <f t="shared" si="26"/>
-        <v>45000</v>
+        <f t="shared" si="32"/>
+        <v>450</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7" si="27">J6/$B$10</f>
-        <v>40000</v>
+        <f t="shared" ref="J7" si="33">J6/$B$10</f>
+        <v>400</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" si="28">K6/$B$10</f>
-        <v>36000</v>
+        <f t="shared" ref="K7" si="34">K6/$B$10</f>
+        <v>360</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7" si="29">L6/$B$10</f>
-        <v>32727.272727272728</v>
+        <f t="shared" ref="L7" si="35">L6/$B$10</f>
+        <v>327.27272727272731</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7" si="30">M6/$B$10</f>
-        <v>30000</v>
+        <f t="shared" ref="M7" si="36">M6/$B$10</f>
+        <v>300</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7" si="31">N6/$B$10</f>
-        <v>27692.307692307691</v>
+        <f t="shared" ref="N7" si="37">N6/$B$10</f>
+        <v>276.92307692307691</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7" si="32">O6/$B$10</f>
-        <v>25714.285714285714</v>
+        <f t="shared" ref="O7" si="38">O6/$B$10</f>
+        <v>257.14285714285711</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7" si="33">P6/$B$10</f>
-        <v>24000</v>
+        <f t="shared" ref="P7" si="39">P6/$B$10</f>
+        <v>240</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7" si="34">Q6/$B$10</f>
-        <v>22500</v>
+        <f t="shared" ref="Q7" si="40">Q6/$B$10</f>
+        <v>225</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7" si="35">R6/$B$10</f>
-        <v>21176.470588235297</v>
+        <f t="shared" ref="R7" si="41">R6/$B$10</f>
+        <v>211.76470588235296</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7" si="36">S6/$B$10</f>
-        <v>20000</v>
+        <f t="shared" ref="S7" si="42">S6/$B$10</f>
+        <v>200</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7" si="37">T6/$B$10</f>
-        <v>18947.36842105263</v>
+        <f t="shared" ref="T7" si="43">T6/$B$10</f>
+        <v>189.4736842105263</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7" si="38">U6/$B$10</f>
-        <v>18000</v>
+        <f t="shared" ref="U7" si="44">U6/$B$10</f>
+        <v>180</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7" si="39">V6/$B$10</f>
-        <v>17142.857142857145</v>
+        <f t="shared" ref="V7" si="45">V6/$B$10</f>
+        <v>171.42857142857144</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="W7" si="40">W6/$B$10</f>
-        <v>16363.636363636364</v>
+        <f t="shared" ref="W7" si="46">W6/$B$10</f>
+        <v>163.63636363636365</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7" si="41">X6/$B$10</f>
-        <v>15652.17391304348</v>
+        <f t="shared" ref="X7" si="47">X6/$B$10</f>
+        <v>156.52173913043478</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7" si="42">Y6/$B$10</f>
-        <v>15000</v>
+        <f t="shared" ref="Y7" si="48">Y6/$B$10</f>
+        <v>150</v>
       </c>
       <c r="Z7">
-        <f t="shared" ref="Z7" si="43">Z6/$B$10</f>
-        <v>14400</v>
+        <f t="shared" ref="Z7" si="49">Z6/$B$10</f>
+        <v>144</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7" si="44">AA6/$B$10</f>
-        <v>13846.153846153846</v>
+        <f t="shared" ref="AA7" si="50">AA6/$B$10</f>
+        <v>138.46153846153845</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7" si="45">AB6/$B$10</f>
-        <v>13333.333333333332</v>
+        <f t="shared" ref="AB7" si="51">AB6/$B$10</f>
+        <v>133.33333333333331</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7" si="46">AC6/$B$10</f>
-        <v>12857.142857142857</v>
+        <f t="shared" ref="AC7" si="52">AC6/$B$10</f>
+        <v>128.57142857142856</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7" si="47">AD6/$B$10</f>
-        <v>12413.793103448275</v>
+        <f t="shared" ref="AD7" si="53">AD6/$B$10</f>
+        <v>124.13793103448276</v>
       </c>
       <c r="AE7">
-        <f t="shared" ref="AE7" si="48">AE6/$B$10</f>
-        <v>12000</v>
+        <f t="shared" ref="AE7" si="54">AE6/$B$10</f>
+        <v>120</v>
       </c>
       <c r="AF7">
-        <f t="shared" ref="AF7" si="49">AF6/$B$10</f>
-        <v>11612.903225806451</v>
+        <f t="shared" ref="AF7" si="55">AF6/$B$10</f>
+        <v>116.12903225806451</v>
       </c>
       <c r="AG7">
-        <f t="shared" ref="AG7" si="50">AG6/$B$10</f>
-        <v>11250</v>
+        <f t="shared" ref="AG7" si="56">AG6/$B$10</f>
+        <v>112.5</v>
       </c>
       <c r="AH7">
-        <f t="shared" ref="AH7:AI7" si="51">AH6/$B$10</f>
-        <v>10909.090909090908</v>
+        <f t="shared" ref="AH7:AI7" si="57">AH6/$B$10</f>
+        <v>109.09090909090908</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="51"/>
-        <v>10588.235294117649</v>
+        <f t="shared" si="57"/>
+        <v>105.88235294117648</v>
       </c>
       <c r="AJ7">
-        <f t="shared" ref="AJ7" si="52">AJ6/$B$10</f>
-        <v>10285.714285714284</v>
+        <f t="shared" ref="AJ7" si="58">AJ6/$B$10</f>
+        <v>102.85714285714285</v>
       </c>
       <c r="AK7">
-        <f t="shared" ref="AK7" si="53">AK6/$B$10</f>
-        <v>10000</v>
+        <f t="shared" ref="AK7:AV7" si="59">AK6/$B$10</f>
+        <v>100</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7" si="54">AL6/$B$10</f>
-        <v>9729.72972972973</v>
+        <f t="shared" ref="AL7:AP7" si="60">AL6/$B$10</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="59"/>
+        <v>94.73684210526315</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="59"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="59"/>
+        <v>90</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="59"/>
+        <v>87.804878048780495</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="59"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="59"/>
+        <v>83.720930232558146</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="59"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="59"/>
+        <v>80</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="59"/>
+        <v>78.260869565217391</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="59"/>
+        <v>76.59574468085107</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ref="AW7:BX7" si="61">AW6/$B$10</f>
+        <v>75</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="61"/>
+        <v>73.469387755102034</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="61"/>
+        <v>72</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="61"/>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="61"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="61"/>
+        <v>67.924528301886795</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="61"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="61"/>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="61"/>
+        <v>64.285714285714278</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="61"/>
+        <v>63.157894736842103</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="61"/>
+        <v>62.068965517241381</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="61"/>
+        <v>61.016949152542374</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="61"/>
+        <v>60</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="61"/>
+        <v>59.016393442622956</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="61"/>
+        <v>58.064516129032256</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="61"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="61"/>
+        <v>56.25</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="61"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" si="61"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="61"/>
+        <v>53.731343283582092</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="61"/>
+        <v>52.941176470588239</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="61"/>
+        <v>52.173913043478258</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="61"/>
+        <v>51.428571428571423</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="61"/>
+        <v>50.704225352112672</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="61"/>
+        <v>50</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="61"/>
+        <v>49.31506849315069</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="61"/>
+        <v>48.648648648648653</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="61"/>
+        <v>48</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" ref="BY7:CD7" si="62">BY6/$B$10</f>
+        <v>47.368421052631575</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" si="62"/>
+        <v>46.753246753246749</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="62"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" si="62"/>
+        <v>45.569620253164558</v>
+      </c>
+      <c r="CC7">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="CD7">
+        <f t="shared" si="62"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="CE7">
+        <f t="shared" ref="CE7:EC7" si="63">CE6/$B$10</f>
+        <v>43.902439024390247</v>
+      </c>
+      <c r="CF7">
+        <f t="shared" si="63"/>
+        <v>43.373493975903614</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="63"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="63"/>
+        <v>42.352941176470587</v>
+      </c>
+      <c r="CI7">
+        <f t="shared" si="63"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="CJ7">
+        <f t="shared" si="63"/>
+        <v>41.379310344827587</v>
+      </c>
+      <c r="CK7">
+        <f t="shared" si="63"/>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="CL7">
+        <f t="shared" si="63"/>
+        <v>40.449438202247194</v>
+      </c>
+      <c r="CM7">
+        <f t="shared" si="63"/>
+        <v>40</v>
+      </c>
+      <c r="CN7">
+        <f t="shared" si="63"/>
+        <v>39.560439560439562</v>
+      </c>
+      <c r="CO7">
+        <f t="shared" si="63"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="CP7">
+        <f t="shared" si="63"/>
+        <v>38.70967741935484</v>
+      </c>
+      <c r="CQ7">
+        <f t="shared" si="63"/>
+        <v>38.297872340425535</v>
+      </c>
+      <c r="CR7">
+        <f t="shared" si="63"/>
+        <v>37.894736842105267</v>
+      </c>
+      <c r="CS7">
+        <f t="shared" si="63"/>
+        <v>37.5</v>
+      </c>
+      <c r="CT7">
+        <f t="shared" si="63"/>
+        <v>37.113402061855673</v>
+      </c>
+      <c r="CU7">
+        <f t="shared" si="63"/>
+        <v>36.734693877551017</v>
+      </c>
+      <c r="CV7">
+        <f t="shared" si="63"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="CW7">
+        <f t="shared" si="63"/>
+        <v>36</v>
+      </c>
+      <c r="CX7">
+        <f t="shared" si="63"/>
+        <v>35.643564356435647</v>
+      </c>
+      <c r="CY7">
+        <f t="shared" si="63"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="CZ7">
+        <f t="shared" si="63"/>
+        <v>34.95145631067961</v>
+      </c>
+      <c r="DA7">
+        <f t="shared" si="63"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="DB7">
+        <f t="shared" si="63"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="DC7">
+        <f t="shared" si="63"/>
+        <v>33.962264150943398</v>
+      </c>
+      <c r="DD7">
+        <f t="shared" si="63"/>
+        <v>33.644859813084111</v>
+      </c>
+      <c r="DE7">
+        <f t="shared" si="63"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="DF7">
+        <f t="shared" si="63"/>
+        <v>33.027522935779821</v>
+      </c>
+      <c r="DG7">
+        <f t="shared" si="63"/>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="DH7">
+        <f t="shared" si="63"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="DI7">
+        <f t="shared" si="63"/>
+        <v>32.142857142857139</v>
+      </c>
+      <c r="DJ7">
+        <f t="shared" si="63"/>
+        <v>31.858407079646021</v>
+      </c>
+      <c r="DK7">
+        <f t="shared" si="63"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="DL7">
+        <f t="shared" si="63"/>
+        <v>31.304347826086957</v>
+      </c>
+      <c r="DM7">
+        <f t="shared" si="63"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="DN7">
+        <f t="shared" si="63"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="DO7">
+        <f t="shared" si="63"/>
+        <v>30.508474576271187</v>
+      </c>
+      <c r="DP7">
+        <f t="shared" si="63"/>
+        <v>30.252100840336137</v>
+      </c>
+      <c r="DQ7">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="DR7">
+        <f t="shared" si="63"/>
+        <v>29.75206611570248</v>
+      </c>
+      <c r="DS7">
+        <f t="shared" si="63"/>
+        <v>29.508196721311478</v>
+      </c>
+      <c r="DT7">
+        <f t="shared" si="63"/>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="DU7">
+        <f t="shared" si="63"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="DV7">
+        <f t="shared" si="63"/>
+        <v>28.8</v>
+      </c>
+      <c r="DW7">
+        <f t="shared" si="63"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="DX7">
+        <f t="shared" si="63"/>
+        <v>28.346456692913385</v>
+      </c>
+      <c r="DY7">
+        <f t="shared" si="63"/>
+        <v>28.125</v>
+      </c>
+      <c r="DZ7">
+        <f t="shared" si="63"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="EA7">
+        <f t="shared" si="63"/>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="EB7">
+        <f t="shared" si="63"/>
+        <v>27.480916030534353</v>
+      </c>
+      <c r="EC7">
+        <f t="shared" si="63"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="ED7">
+        <f t="shared" ref="ED7:GO7" si="64">ED6/$B$10</f>
+        <v>27.06766917293233</v>
+      </c>
+      <c r="EE7">
+        <f t="shared" si="64"/>
+        <v>26.865671641791046</v>
+      </c>
+      <c r="EF7">
+        <f t="shared" si="64"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="EG7">
+        <f t="shared" si="64"/>
+        <v>26.47058823529412</v>
+      </c>
+      <c r="EH7">
+        <f t="shared" si="64"/>
+        <v>26.277372262773721</v>
+      </c>
+      <c r="EI7">
+        <f t="shared" si="64"/>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="EJ7">
+        <f t="shared" si="64"/>
+        <v>25.899280575539567</v>
+      </c>
+      <c r="EK7">
+        <f t="shared" si="64"/>
+        <v>25.714285714285712</v>
+      </c>
+      <c r="EL7">
+        <f t="shared" si="64"/>
+        <v>25.531914893617021</v>
+      </c>
+      <c r="EM7">
+        <f t="shared" si="64"/>
+        <v>25.352112676056336</v>
+      </c>
+      <c r="EN7">
+        <f t="shared" si="64"/>
+        <v>25.174825174825177</v>
+      </c>
+      <c r="EO7">
+        <f t="shared" si="64"/>
+        <v>25</v>
+      </c>
+      <c r="EP7">
+        <f t="shared" si="64"/>
+        <v>24.827586206896552</v>
+      </c>
+      <c r="EQ7">
+        <f t="shared" si="64"/>
+        <v>24.657534246575345</v>
+      </c>
+      <c r="ER7">
+        <f t="shared" si="64"/>
+        <v>24.489795918367346</v>
+      </c>
+      <c r="ES7">
+        <f t="shared" si="64"/>
+        <v>24.324324324324326</v>
+      </c>
+      <c r="ET7">
+        <f t="shared" si="64"/>
+        <v>24.161073825503355</v>
+      </c>
+      <c r="EU7">
+        <f t="shared" si="64"/>
+        <v>24</v>
+      </c>
+      <c r="EV7">
+        <f t="shared" si="64"/>
+        <v>23.841059602649008</v>
+      </c>
+      <c r="EW7">
+        <f t="shared" si="64"/>
+        <v>23.684210526315788</v>
+      </c>
+      <c r="EX7">
+        <f t="shared" si="64"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="EY7">
+        <f t="shared" si="64"/>
+        <v>23.376623376623375</v>
+      </c>
+      <c r="EZ7">
+        <f t="shared" si="64"/>
+        <v>23.225806451612904</v>
+      </c>
+      <c r="FA7">
+        <f t="shared" si="64"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="FB7">
+        <f t="shared" si="64"/>
+        <v>22.929936305732483</v>
+      </c>
+      <c r="FC7">
+        <f t="shared" si="64"/>
+        <v>22.784810126582279</v>
+      </c>
+      <c r="FD7">
+        <f t="shared" si="64"/>
+        <v>22.641509433962266</v>
+      </c>
+      <c r="FE7">
+        <f t="shared" si="64"/>
+        <v>22.5</v>
+      </c>
+      <c r="FF7">
+        <f t="shared" si="64"/>
+        <v>22.36024844720497</v>
+      </c>
+      <c r="FG7">
+        <f t="shared" si="64"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="FH7">
+        <f t="shared" si="64"/>
+        <v>22.085889570552148</v>
+      </c>
+      <c r="FI7">
+        <f t="shared" si="64"/>
+        <v>21.951219512195124</v>
+      </c>
+      <c r="FJ7">
+        <f t="shared" si="64"/>
+        <v>21.818181818181817</v>
+      </c>
+      <c r="FK7">
+        <f t="shared" si="64"/>
+        <v>21.686746987951807</v>
+      </c>
+      <c r="FL7">
+        <f t="shared" si="64"/>
+        <v>21.556886227544908</v>
+      </c>
+      <c r="FM7">
+        <f t="shared" si="64"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="FN7">
+        <f t="shared" si="64"/>
+        <v>21.301775147928993</v>
+      </c>
+      <c r="FO7">
+        <f t="shared" si="64"/>
+        <v>21.176470588235293</v>
+      </c>
+      <c r="FP7">
+        <f t="shared" si="64"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="FQ7">
+        <f t="shared" si="64"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="FR7">
+        <f t="shared" si="64"/>
+        <v>20.809248554913296</v>
+      </c>
+      <c r="FS7">
+        <f t="shared" si="64"/>
+        <v>20.689655172413794</v>
+      </c>
+      <c r="FT7">
+        <f t="shared" si="64"/>
+        <v>20.571428571428569</v>
+      </c>
+      <c r="FU7">
+        <f t="shared" si="64"/>
+        <v>20.454545454545457</v>
+      </c>
+      <c r="FV7">
+        <f t="shared" si="64"/>
+        <v>20.338983050847457</v>
+      </c>
+      <c r="FW7">
+        <f t="shared" si="64"/>
+        <v>20.224719101123597</v>
+      </c>
+      <c r="FX7">
+        <f t="shared" si="64"/>
+        <v>20.11173184357542</v>
+      </c>
+      <c r="FY7">
+        <f t="shared" si="64"/>
+        <v>20</v>
+      </c>
+      <c r="FZ7">
+        <f t="shared" si="64"/>
+        <v>19.88950276243094</v>
+      </c>
+      <c r="GA7">
+        <f t="shared" si="64"/>
+        <v>19.780219780219781</v>
+      </c>
+      <c r="GB7">
+        <f t="shared" si="64"/>
+        <v>19.672131147540984</v>
+      </c>
+      <c r="GC7">
+        <f t="shared" si="64"/>
+        <v>19.565217391304348</v>
+      </c>
+      <c r="GD7">
+        <f t="shared" si="64"/>
+        <v>19.45945945945946</v>
+      </c>
+      <c r="GE7">
+        <f t="shared" si="64"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="GF7">
+        <f t="shared" si="64"/>
+        <v>19.251336898395721</v>
+      </c>
+      <c r="GG7">
+        <f t="shared" si="64"/>
+        <v>19.148936170212767</v>
+      </c>
+      <c r="GH7">
+        <f t="shared" si="64"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="GI7">
+        <f t="shared" si="64"/>
+        <v>18.947368421052634</v>
+      </c>
+      <c r="GJ7">
+        <f t="shared" si="64"/>
+        <v>18.848167539267013</v>
+      </c>
+      <c r="GK7">
+        <f t="shared" si="64"/>
+        <v>18.75</v>
+      </c>
+      <c r="GL7">
+        <f t="shared" si="64"/>
+        <v>18.652849740932645</v>
+      </c>
+      <c r="GM7">
+        <f t="shared" si="64"/>
+        <v>18.556701030927837</v>
+      </c>
+      <c r="GN7">
+        <f t="shared" si="64"/>
+        <v>18.461538461538463</v>
+      </c>
+      <c r="GO7">
+        <f t="shared" si="64"/>
+        <v>18.367346938775508</v>
+      </c>
+      <c r="GP7">
+        <f t="shared" ref="GP7:JA7" si="65">GP6/$B$10</f>
+        <v>18.274111675126903</v>
+      </c>
+      <c r="GQ7">
+        <f t="shared" si="65"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="GR7">
+        <f t="shared" si="65"/>
+        <v>18.090452261306531</v>
+      </c>
+      <c r="GS7">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="GT7">
+        <f t="shared" si="65"/>
+        <v>17.910447761194028</v>
+      </c>
+      <c r="GU7">
+        <f t="shared" si="65"/>
+        <v>17.821782178217823</v>
+      </c>
+      <c r="GV7">
+        <f t="shared" si="65"/>
+        <v>17.733990147783253</v>
+      </c>
+      <c r="GW7">
+        <f t="shared" si="65"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="GX7">
+        <f t="shared" si="65"/>
+        <v>17.560975609756099</v>
+      </c>
+      <c r="GY7">
+        <f t="shared" si="65"/>
+        <v>17.475728155339805</v>
+      </c>
+      <c r="GZ7">
+        <f t="shared" si="65"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="HA7">
+        <f t="shared" si="65"/>
+        <v>17.307692307692307</v>
+      </c>
+      <c r="HB7">
+        <f t="shared" si="65"/>
+        <v>17.224880382775119</v>
+      </c>
+      <c r="HC7">
+        <f t="shared" si="65"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="HD7">
+        <f t="shared" si="65"/>
+        <v>17.061611374407583</v>
+      </c>
+      <c r="HE7">
+        <f t="shared" si="65"/>
+        <v>16.981132075471699</v>
+      </c>
+      <c r="HF7">
+        <f t="shared" si="65"/>
+        <v>16.901408450704224</v>
+      </c>
+      <c r="HG7">
+        <f t="shared" si="65"/>
+        <v>16.822429906542055</v>
+      </c>
+      <c r="HH7">
+        <f t="shared" si="65"/>
+        <v>16.744186046511629</v>
+      </c>
+      <c r="HI7">
+        <f t="shared" si="65"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="HJ7">
+        <f t="shared" si="65"/>
+        <v>16.589861751152075</v>
+      </c>
+      <c r="HK7">
+        <f t="shared" si="65"/>
+        <v>16.513761467889911</v>
+      </c>
+      <c r="HL7">
+        <f t="shared" si="65"/>
+        <v>16.438356164383563</v>
+      </c>
+      <c r="HM7">
+        <f t="shared" si="65"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="HN7">
+        <f t="shared" si="65"/>
+        <v>16.289592760180998</v>
+      </c>
+      <c r="HO7">
+        <f t="shared" si="65"/>
+        <v>16.216216216216218</v>
+      </c>
+      <c r="HP7">
+        <f t="shared" si="65"/>
+        <v>16.143497757847534</v>
+      </c>
+      <c r="HQ7">
+        <f t="shared" si="65"/>
+        <v>16.071428571428569</v>
+      </c>
+      <c r="HR7">
+        <f t="shared" si="65"/>
+        <v>16</v>
+      </c>
+      <c r="HS7">
+        <f t="shared" si="65"/>
+        <v>15.929203539823011</v>
+      </c>
+      <c r="HT7">
+        <f t="shared" si="65"/>
+        <v>15.859030837004404</v>
+      </c>
+      <c r="HU7">
+        <f t="shared" si="65"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="HV7">
+        <f t="shared" si="65"/>
+        <v>15.720524017467248</v>
+      </c>
+      <c r="HW7">
+        <f t="shared" si="65"/>
+        <v>15.652173913043478</v>
+      </c>
+      <c r="HX7">
+        <f t="shared" si="65"/>
+        <v>15.584415584415584</v>
+      </c>
+      <c r="HY7">
+        <f t="shared" si="65"/>
+        <v>15.517241379310345</v>
+      </c>
+      <c r="HZ7">
+        <f t="shared" si="65"/>
+        <v>15.450643776824034</v>
+      </c>
+      <c r="IA7">
+        <f t="shared" si="65"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="IB7">
+        <f t="shared" si="65"/>
+        <v>15.319148936170212</v>
+      </c>
+      <c r="IC7">
+        <f t="shared" si="65"/>
+        <v>15.254237288135593</v>
+      </c>
+      <c r="ID7">
+        <f t="shared" si="65"/>
+        <v>15.18987341772152</v>
+      </c>
+      <c r="IE7">
+        <f t="shared" si="65"/>
+        <v>15.126050420168069</v>
+      </c>
+      <c r="IF7">
+        <f t="shared" si="65"/>
+        <v>15.06276150627615</v>
+      </c>
+      <c r="IG7">
+        <f t="shared" si="65"/>
+        <v>15</v>
+      </c>
+      <c r="IH7">
+        <f t="shared" si="65"/>
+        <v>14.937759336099585</v>
+      </c>
+      <c r="II7">
+        <f t="shared" si="65"/>
+        <v>14.87603305785124</v>
+      </c>
+      <c r="IJ7">
+        <f t="shared" si="65"/>
+        <v>14.814814814814815</v>
+      </c>
+      <c r="IK7">
+        <f t="shared" si="65"/>
+        <v>14.754098360655739</v>
+      </c>
+      <c r="IL7">
+        <f t="shared" si="65"/>
+        <v>14.693877551020408</v>
+      </c>
+      <c r="IM7">
+        <f t="shared" si="65"/>
+        <v>14.634146341463413</v>
+      </c>
+      <c r="IN7">
+        <f t="shared" si="65"/>
+        <v>14.5748987854251</v>
+      </c>
+      <c r="IO7">
+        <f t="shared" si="65"/>
+        <v>14.516129032258064</v>
+      </c>
+      <c r="IP7">
+        <f t="shared" si="65"/>
+        <v>14.457831325301205</v>
+      </c>
+      <c r="IQ7">
+        <f t="shared" si="65"/>
+        <v>14.4</v>
+      </c>
+      <c r="IR7">
+        <f t="shared" si="65"/>
+        <v>14.342629482071713</v>
+      </c>
+      <c r="IS7">
+        <f t="shared" si="65"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="IT7">
+        <f t="shared" si="65"/>
+        <v>14.229249011857709</v>
+      </c>
+      <c r="IU7">
+        <f t="shared" si="65"/>
+        <v>14.173228346456693</v>
+      </c>
+      <c r="IV7">
+        <f t="shared" si="65"/>
+        <v>14.117647058823531</v>
+      </c>
+      <c r="IW7">
+        <f t="shared" si="65"/>
+        <v>14.0625</v>
+      </c>
+      <c r="IX7">
+        <f t="shared" si="65"/>
+        <v>14.007782101167317</v>
+      </c>
+      <c r="IY7">
+        <f t="shared" si="65"/>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="IZ7">
+        <f t="shared" si="65"/>
+        <v>13.8996138996139</v>
+      </c>
+      <c r="JA7">
+        <f t="shared" si="65"/>
+        <v>13.846153846153847</v>
+      </c>
+      <c r="JB7">
+        <f t="shared" ref="JB7:KP7" si="66">JB6/$B$10</f>
+        <v>13.793103448275861</v>
+      </c>
+      <c r="JC7">
+        <f t="shared" si="66"/>
+        <v>13.740458015267176</v>
+      </c>
+      <c r="JD7">
+        <f t="shared" si="66"/>
+        <v>13.688212927756654</v>
+      </c>
+      <c r="JE7">
+        <f t="shared" si="66"/>
+        <v>13.636363636363635</v>
+      </c>
+      <c r="JF7">
+        <f t="shared" si="66"/>
+        <v>13.584905660377359</v>
+      </c>
+      <c r="JG7">
+        <f t="shared" si="66"/>
+        <v>13.533834586466165</v>
+      </c>
+      <c r="JH7">
+        <f t="shared" si="66"/>
+        <v>13.483146067415731</v>
+      </c>
+      <c r="JI7">
+        <f t="shared" si="66"/>
+        <v>13.432835820895523</v>
+      </c>
+      <c r="JJ7">
+        <f t="shared" si="66"/>
+        <v>13.382899628252789</v>
+      </c>
+      <c r="JK7">
+        <f t="shared" si="66"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="JL7">
+        <f t="shared" si="66"/>
+        <v>13.284132841328413</v>
+      </c>
+      <c r="JM7">
+        <f t="shared" si="66"/>
+        <v>13.23529411764706</v>
+      </c>
+      <c r="JN7">
+        <f t="shared" si="66"/>
+        <v>13.186813186813186</v>
+      </c>
+      <c r="JO7">
+        <f t="shared" si="66"/>
+        <v>13.13868613138686</v>
+      </c>
+      <c r="JP7">
+        <f t="shared" si="66"/>
+        <v>13.090909090909092</v>
+      </c>
+      <c r="JQ7">
+        <f t="shared" si="66"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="JR7">
+        <f t="shared" si="66"/>
+        <v>12.996389891696751</v>
+      </c>
+      <c r="JS7">
+        <f t="shared" si="66"/>
+        <v>12.949640287769784</v>
+      </c>
+      <c r="JT7">
+        <f t="shared" si="66"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="JU7">
+        <f t="shared" si="66"/>
+        <v>12.857142857142856</v>
+      </c>
+      <c r="JV7">
+        <f t="shared" si="66"/>
+        <v>12.811387900355871</v>
+      </c>
+      <c r="JW7">
+        <f t="shared" si="66"/>
+        <v>12.76595744680851</v>
+      </c>
+      <c r="JX7">
+        <f t="shared" si="66"/>
+        <v>12.720848056537102</v>
+      </c>
+      <c r="JY7">
+        <f t="shared" si="66"/>
+        <v>12.676056338028168</v>
+      </c>
+      <c r="JZ7">
+        <f t="shared" si="66"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="KA7">
+        <f t="shared" si="66"/>
+        <v>12.587412587412588</v>
+      </c>
+      <c r="KB7">
+        <f t="shared" si="66"/>
+        <v>12.543554006968641</v>
+      </c>
+      <c r="KC7">
+        <f t="shared" si="66"/>
+        <v>12.5</v>
+      </c>
+      <c r="KD7">
+        <f t="shared" si="66"/>
+        <v>12.456747404844291</v>
+      </c>
+      <c r="KE7">
+        <f t="shared" si="66"/>
+        <v>12.413793103448276</v>
+      </c>
+      <c r="KF7">
+        <f t="shared" si="66"/>
+        <v>12.371134020618557</v>
+      </c>
+      <c r="KG7">
+        <f t="shared" si="66"/>
+        <v>12.328767123287673</v>
+      </c>
+      <c r="KH7">
+        <f t="shared" si="66"/>
+        <v>12.286689419795222</v>
+      </c>
+      <c r="KI7">
+        <f t="shared" si="66"/>
+        <v>12.244897959183673</v>
+      </c>
+      <c r="KJ7">
+        <f t="shared" si="66"/>
+        <v>12.203389830508474</v>
+      </c>
+      <c r="KK7">
+        <f t="shared" si="66"/>
+        <v>12.162162162162163</v>
+      </c>
+      <c r="KL7">
+        <f t="shared" si="66"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="KM7">
+        <f t="shared" si="66"/>
+        <v>12.080536912751677</v>
+      </c>
+      <c r="KN7">
+        <f t="shared" si="66"/>
+        <v>12.040133779264213</v>
+      </c>
+      <c r="KO7">
+        <f t="shared" si="66"/>
+        <v>12</v>
+      </c>
+      <c r="KP7">
+        <f t="shared" si="66"/>
+        <v>11.960132890365449</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:302" x14ac:dyDescent="0.25">
       <c r="AK8">
         <f>AK7/5</f>
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
